--- a/library/Library_J.PLAGGENBERG_01.22.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_01.22.20.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GCTTCT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -252,7 +252,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -302,6 +302,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,7 +352,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,6 +381,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,8 +408,8 @@
   </sheetPr>
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,10 +502,11 @@
       <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="7" t="b">
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -543,10 +555,11 @@
       <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="7" t="b">
+      <c r="K3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -581,10 +594,11 @@
       <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="7" t="b">
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -619,10 +633,11 @@
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="b">
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -657,10 +672,11 @@
       <c r="J6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="b">
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -695,10 +711,11 @@
       <c r="J7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7" t="b">
+      <c r="K7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -733,10 +750,11 @@
       <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="b">
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -771,10 +789,11 @@
       <c r="J9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="7" t="b">
+      <c r="K9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -809,10 +828,11 @@
       <c r="J10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="7" t="b">
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -847,10 +867,11 @@
       <c r="J11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="b">
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -885,10 +906,11 @@
       <c r="J12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="7" t="b">
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -923,10 +945,11 @@
       <c r="J13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="b">
+      <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -961,10 +984,11 @@
       <c r="J14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="b">
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -999,10 +1023,11 @@
       <c r="J15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="b">
+      <c r="K15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1037,10 +1062,11 @@
       <c r="J16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="7" t="b">
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1075,10 +1101,11 @@
       <c r="J17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="b">
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1113,10 +1140,11 @@
       <c r="J18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="b">
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1151,10 +1179,11 @@
       <c r="J19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="7" t="b">
+      <c r="K19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1189,10 +1218,11 @@
       <c r="J20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="b">
+      <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1227,10 +1257,11 @@
       <c r="J21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="b">
+      <c r="K21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1265,10 +1296,11 @@
       <c r="J22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="7" t="b">
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1303,10 +1335,11 @@
       <c r="J23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="b">
+      <c r="K23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1341,10 +1374,11 @@
       <c r="J24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="b">
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1379,10 +1413,11 @@
       <c r="J25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="b">
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1417,10 +1452,11 @@
       <c r="J26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="b">
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1455,10 +1491,11 @@
       <c r="J27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="7" t="b">
+      <c r="K27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1493,10 +1530,11 @@
       <c r="J28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="7" t="b">
+      <c r="K28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1531,10 +1569,11 @@
       <c r="J29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="7" t="b">
+      <c r="K29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1569,10 +1608,11 @@
       <c r="J30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="7" t="b">
+      <c r="K30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1607,10 +1647,11 @@
       <c r="J31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="7" t="b">
+      <c r="K31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1645,10 +1686,11 @@
       <c r="J32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="7" t="b">
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1683,10 +1725,11 @@
       <c r="J33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="7" t="b">
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1721,10 +1764,11 @@
       <c r="J34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="7" t="b">
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1759,10 +1803,11 @@
       <c r="J35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="7" t="b">
+      <c r="K35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1797,10 +1842,11 @@
       <c r="J36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="7" t="b">
+      <c r="K36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1835,10 +1881,11 @@
       <c r="J37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="7" t="b">
+      <c r="K37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1873,10 +1920,11 @@
       <c r="J38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="7" t="b">
+      <c r="K38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1911,10 +1959,11 @@
       <c r="J39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="7" t="b">
+      <c r="K39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1949,10 +1998,11 @@
       <c r="J40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="7" t="b">
+      <c r="K40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1987,10 +2037,11 @@
       <c r="J41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="7" t="b">
+      <c r="K41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2025,10 +2076,11 @@
       <c r="J42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="7" t="b">
+      <c r="K42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2063,10 +2115,11 @@
       <c r="J43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="7" t="b">
+      <c r="K43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2101,10 +2154,11 @@
       <c r="J44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="7" t="b">
+      <c r="K44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2139,10 +2193,11 @@
       <c r="J45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="7" t="b">
+      <c r="K45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2177,10 +2232,11 @@
       <c r="J46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="7" t="b">
+      <c r="K46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2215,10 +2271,11 @@
       <c r="J47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="7" t="b">
+      <c r="K47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2253,10 +2310,11 @@
       <c r="J48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" s="7" t="b">
+      <c r="K48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2291,10 +2349,11 @@
       <c r="J49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="7" t="b">
+      <c r="K49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2329,10 +2388,11 @@
       <c r="J50" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50" s="7" t="b">
+      <c r="K50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2367,10 +2427,11 @@
       <c r="J51" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="7" t="b">
+      <c r="K51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2405,10 +2466,11 @@
       <c r="J52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="7" t="b">
+      <c r="K52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2443,10 +2505,11 @@
       <c r="J53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="7" t="b">
+      <c r="K53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2481,10 +2544,11 @@
       <c r="J54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="7" t="b">
+      <c r="K54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2519,10 +2583,11 @@
       <c r="J55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" s="7" t="b">
+      <c r="K55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2557,10 +2622,11 @@
       <c r="J56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" s="7" t="b">
+      <c r="K56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2595,10 +2661,11 @@
       <c r="J57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="7" t="b">
+      <c r="K57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/Library_J.PLAGGENBERG_01.22.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_01.22.20.xlsx
@@ -408,8 +408,8 @@
   </sheetPr>
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,8 +505,7 @@
       <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="8" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -558,8 +557,7 @@
       <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -597,8 +595,7 @@
       <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,8 +633,7 @@
       <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -675,8 +671,7 @@
       <c r="K6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -714,8 +709,7 @@
       <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L7" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -753,8 +747,7 @@
       <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,8 +785,7 @@
       <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L9" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -831,8 +823,7 @@
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L10" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -870,8 +861,7 @@
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L11" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -909,8 +899,7 @@
       <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L12" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -948,8 +937,7 @@
       <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L13" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -987,8 +975,7 @@
       <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L14" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1026,8 +1013,7 @@
       <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L15" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1065,8 +1051,7 @@
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L16" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1104,8 +1089,7 @@
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L17" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1143,8 +1127,7 @@
       <c r="K18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L18" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1182,8 +1165,7 @@
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L19" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1221,8 +1203,7 @@
       <c r="K20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L20" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1260,8 +1241,7 @@
       <c r="K21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L21" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1299,8 +1279,7 @@
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L22" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1338,8 +1317,7 @@
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L23" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1377,8 +1355,7 @@
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L24" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1416,8 +1393,7 @@
       <c r="K25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L25" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1455,8 +1431,7 @@
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L26" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1494,8 +1469,7 @@
       <c r="K27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L27" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1533,8 +1507,7 @@
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L28" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1572,8 +1545,7 @@
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L29" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1611,8 +1583,7 @@
       <c r="K30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L30" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1650,8 +1621,7 @@
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L31" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1689,8 +1659,7 @@
       <c r="K32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L32" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1728,8 +1697,7 @@
       <c r="K33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L33" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1767,8 +1735,7 @@
       <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L34" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1806,8 +1773,7 @@
       <c r="K35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L35" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1845,8 +1811,7 @@
       <c r="K36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L36" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1884,8 +1849,7 @@
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L37" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1923,8 +1887,7 @@
       <c r="K38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L38" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1962,8 +1925,7 @@
       <c r="K39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L39" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2001,8 +1963,7 @@
       <c r="K40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L40" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2040,8 +2001,7 @@
       <c r="K41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L41" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2079,8 +2039,7 @@
       <c r="K42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L42" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2118,8 +2077,7 @@
       <c r="K43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L43" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2157,8 +2115,7 @@
       <c r="K44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L44" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2196,8 +2153,7 @@
       <c r="K45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L45" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2235,8 +2191,7 @@
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L46" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2274,8 +2229,7 @@
       <c r="K47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L47" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2313,8 +2267,7 @@
       <c r="K48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L48" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2352,8 +2305,7 @@
       <c r="K49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L49" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2391,8 +2343,7 @@
       <c r="K50" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L50" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2430,8 +2381,7 @@
       <c r="K51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L51" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L51" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2469,8 +2419,7 @@
       <c r="K52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L52" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2508,8 +2457,7 @@
       <c r="K53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L53" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2547,8 +2495,7 @@
       <c r="K54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L54" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2586,8 +2533,7 @@
       <c r="K55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L55" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2625,8 +2571,7 @@
       <c r="K56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L56" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2664,8 +2609,7 @@
       <c r="K57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L57" s="8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/library/Library_J.PLAGGENBERG_01.22.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_01.22.20.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GCTTCT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -409,7 +409,7 @@
   <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L57"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,7 +505,8 @@
       <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -557,7 +558,8 @@
       <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -595,7 +597,8 @@
       <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -633,7 +636,8 @@
       <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -671,7 +675,8 @@
       <c r="K6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -709,7 +714,8 @@
       <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -747,7 +753,8 @@
       <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -785,7 +792,8 @@
       <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -823,7 +831,8 @@
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -861,7 +870,8 @@
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -899,7 +909,8 @@
       <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -937,7 +948,8 @@
       <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -975,7 +987,8 @@
       <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1013,7 +1026,8 @@
       <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1051,7 +1065,8 @@
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1089,7 +1104,8 @@
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1127,7 +1143,8 @@
       <c r="K18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1165,7 +1182,8 @@
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1203,7 +1221,8 @@
       <c r="K20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="b">
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1241,7 +1260,8 @@
       <c r="K21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="b">
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1279,7 +1299,8 @@
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="b">
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1317,7 +1338,8 @@
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="b">
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1355,7 +1377,8 @@
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="b">
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1393,7 +1416,8 @@
       <c r="K25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="b">
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1431,7 +1455,8 @@
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="b">
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1469,7 +1494,8 @@
       <c r="K27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="b">
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1507,7 +1533,8 @@
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="b">
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1545,7 +1572,8 @@
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="b">
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1583,7 +1611,8 @@
       <c r="K30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="b">
+      <c r="L30" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1621,7 +1650,8 @@
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="8" t="b">
+      <c r="L31" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1659,7 +1689,8 @@
       <c r="K32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="b">
+      <c r="L32" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1697,7 +1728,8 @@
       <c r="K33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="8" t="b">
+      <c r="L33" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1735,7 +1767,8 @@
       <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="8" t="b">
+      <c r="L34" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1773,7 +1806,8 @@
       <c r="K35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="8" t="b">
+      <c r="L35" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1811,7 +1845,8 @@
       <c r="K36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="8" t="b">
+      <c r="L36" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1849,7 +1884,8 @@
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="8" t="b">
+      <c r="L37" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1887,7 +1923,8 @@
       <c r="K38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="8" t="b">
+      <c r="L38" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1925,7 +1962,8 @@
       <c r="K39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="8" t="b">
+      <c r="L39" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1963,7 +2001,8 @@
       <c r="K40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="8" t="b">
+      <c r="L40" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2001,7 +2040,8 @@
       <c r="K41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="8" t="b">
+      <c r="L41" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2079,8 @@
       <c r="K42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="8" t="b">
+      <c r="L42" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2077,7 +2118,8 @@
       <c r="K43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="8" t="b">
+      <c r="L43" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2115,7 +2157,8 @@
       <c r="K44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="8" t="b">
+      <c r="L44" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2153,7 +2196,8 @@
       <c r="K45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="8" t="b">
+      <c r="L45" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2191,7 +2235,8 @@
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="8" t="b">
+      <c r="L46" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2229,7 +2274,8 @@
       <c r="K47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="8" t="b">
+      <c r="L47" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2267,7 +2313,8 @@
       <c r="K48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="8" t="b">
+      <c r="L48" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2305,7 +2352,8 @@
       <c r="K49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="8" t="b">
+      <c r="L49" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2343,7 +2391,8 @@
       <c r="K50" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="8" t="b">
+      <c r="L50" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2381,7 +2430,8 @@
       <c r="K51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L51" s="8" t="b">
+      <c r="L51" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2419,7 +2469,8 @@
       <c r="K52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="8" t="b">
+      <c r="L52" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2457,7 +2508,8 @@
       <c r="K53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="8" t="b">
+      <c r="L53" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2495,7 +2547,8 @@
       <c r="K54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="8" t="b">
+      <c r="L54" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2533,7 +2586,8 @@
       <c r="K55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="8" t="b">
+      <c r="L55" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2571,7 +2625,8 @@
       <c r="K56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="8" t="b">
+      <c r="L56" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2609,7 +2664,8 @@
       <c r="K57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="8" t="b">
+      <c r="L57" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
